--- a/output/cesal.xlsx
+++ b/output/cesal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -750,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ96"/>
+  <dimension ref="A1:AM96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,7 +768,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,10 +877,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -970,15 +988,24 @@
         <v>0.0720055073003881</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>50017</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1077,15 +1104,24 @@
         <v>0.0720055073003881</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>447681</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1184,15 +1220,24 @@
         <v>0.0720055073003881</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>68154</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1291,15 +1336,24 @@
         <v>0.0720055073003881</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>563847</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1398,15 +1452,24 @@
         <v>0.0720055073003881</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>58643</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1505,15 +1568,24 @@
         <v>0.0720055073003881</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>378262</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1612,15 +1684,24 @@
         <v>0.0720055073003881</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>200613</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1719,15 +1800,24 @@
         <v>0.0720055073003881</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>2680613</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1826,15 +1916,24 @@
         <v>0.0720055073003881</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>179268</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1933,15 +2032,24 @@
         <v>0.0720055073003881</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>7878</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2040,15 +2148,24 @@
         <v>0.0720055073003881</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>61900</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2147,15 +2264,24 @@
         <v>0.0720055073003881</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>137565</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2254,15 +2380,24 @@
         <v>0.04763631495270226</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>376946</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2361,15 +2496,24 @@
         <v>0.04763631495270226</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>138896</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2468,15 +2612,24 @@
         <v>0.04763631495270226</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>996196</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2575,15 +2728,24 @@
         <v>0.04763631495270226</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>227219</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2682,15 +2844,24 @@
         <v>0.04763631495270226</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>1100638</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2789,15 +2960,24 @@
         <v>0.04763631495270226</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>1773083</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2896,15 +3076,24 @@
         <v>0.04763631495270226</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>274796</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3003,15 +3192,24 @@
         <v>0.04763631495270226</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>229070</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3110,15 +3308,24 @@
         <v>0.04763631495270226</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>794610</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3217,15 +3424,24 @@
         <v>0.04763631495270226</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>1045533</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3324,15 +3540,24 @@
         <v>0.04763631495270226</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>162613</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3431,15 +3656,24 @@
         <v>0.04763631495270226</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>2736298</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3538,15 +3772,24 @@
         <v>0.04763631495270226</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>164747</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3645,15 +3888,24 @@
         <v>0.4386065552976394</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>144341</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3752,15 +4004,24 @@
         <v>0.4386065552976394</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>145013</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3859,15 +4120,24 @@
         <v>0.4386065552976394</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>1073019</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3966,15 +4236,24 @@
         <v>0.4386065552976394</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>44397</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4073,15 +4352,24 @@
         <v>0.4386065552976394</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>1575691</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4180,15 +4468,24 @@
         <v>0.4386065552976394</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>758491</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4287,15 +4584,24 @@
         <v>0.4386065552976394</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>227916</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4394,15 +4700,24 @@
         <v>0.4386065552976394</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>991844</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4501,15 +4816,24 @@
         <v>0.4386065552976394</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>873573</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4608,15 +4932,24 @@
         <v>0.4386065552976394</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>226558</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4715,15 +5048,24 @@
         <v>0.4386065552976394</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>2503169</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4822,15 +5164,24 @@
         <v>0.4386065552976394</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>17227</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4929,15 +5280,24 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>23582</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5036,15 +5396,24 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>6541</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5143,15 +5512,24 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>271590</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5250,15 +5628,24 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>785204.5</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5357,15 +5744,24 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>49711.5</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5464,15 +5860,24 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>472014.5</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5571,15 +5976,24 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>371736.5</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5678,15 +6092,24 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>120447.5</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5785,15 +6208,24 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>8023.5</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5892,15 +6324,24 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>1102894.5</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5999,15 +6440,24 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>15470</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6106,15 +6556,24 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>23582</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6213,15 +6672,24 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>6541</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6320,15 +6788,24 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>271590</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6427,15 +6904,24 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>785204.5</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6534,15 +7020,24 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>49711.5</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6641,15 +7136,24 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>472014.5</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6748,15 +7252,24 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>371736.5</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6855,15 +7368,24 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>120447.5</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6962,15 +7484,24 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>8023.5</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7069,15 +7600,24 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>1102894.5</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7176,15 +7716,24 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>15470</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7283,15 +7832,24 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>15253.275</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7390,15 +7948,24 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>27970.275</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7497,15 +8064,24 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>413366.26</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -7604,15 +8180,24 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>765961.645</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7711,15 +8296,24 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>716272.5</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7818,15 +8412,24 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>130849.485</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -7925,15 +8528,24 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>48790.855</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8032,15 +8644,24 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>9765.18</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8139,15 +8760,24 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>1052164.325</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8246,15 +8876,24 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>396014.34</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8353,15 +8992,24 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>4161.2</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8460,15 +9108,24 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>15253.275</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8567,15 +9224,24 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>27970.275</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8674,15 +9340,24 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>413366.26</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8781,15 +9456,24 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>765961.645</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8888,15 +9572,24 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>1</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>716272.5</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -8995,15 +9688,24 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>130849.485</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9102,15 +9804,24 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>48790.855</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9209,15 +9920,24 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>9765.18</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9316,15 +10036,24 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>1052164.325</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9423,15 +10152,24 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>396014.34</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9530,15 +10268,24 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>4161.2</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -9637,15 +10384,24 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>9194</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9744,15 +10500,24 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>5082</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9851,15 +10616,24 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>70071</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -9958,15 +10732,24 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>1234257</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -10065,15 +10848,24 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>1068102</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10172,15 +10964,24 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>1</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>866628</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10279,15 +11080,24 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>8496</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10386,15 +11196,24 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>167554</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -10493,15 +11312,24 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>249203</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10600,15 +11428,24 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>1</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>25199</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10707,15 +11544,24 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>1</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>1198295</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -10814,21 +11660,30 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>543185</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -10921,15 +11776,24 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>30000</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11028,9 +11892,18 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>19336</v>
       </c>
     </row>

--- a/output/cesal.xlsx
+++ b/output/cesal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -759,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM96"/>
+  <dimension ref="A1:AO96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,7 +774,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,10 +892,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -946,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>636051</v>
+        <v>643102</v>
       </c>
       <c r="U2">
         <v>21</v>
@@ -982,30 +994,36 @@
         <v>2565774</v>
       </c>
       <c r="AG2">
-        <v>8833366</v>
+        <v>8840417</v>
       </c>
       <c r="AH2">
-        <v>0.0720055073003881</v>
+        <v>0.07274566346813731</v>
       </c>
       <c r="AI2">
+        <v>0.5674907642931323</v>
+      </c>
+      <c r="AJ2">
         <v>1988</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>50017</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1062,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>636051</v>
+        <v>643102</v>
       </c>
       <c r="U3">
         <v>21</v>
@@ -1098,30 +1116,36 @@
         <v>3881838</v>
       </c>
       <c r="AG3">
-        <v>8833366</v>
+        <v>8840417</v>
       </c>
       <c r="AH3">
-        <v>0.0720055073003881</v>
+        <v>0.07274566346813731</v>
       </c>
       <c r="AI3">
+        <v>0.5674907642931323</v>
+      </c>
+      <c r="AJ3">
         <v>1988</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>447681</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1178,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>636051</v>
+        <v>643102</v>
       </c>
       <c r="U4">
         <v>21</v>
@@ -1214,30 +1238,36 @@
         <v>4231773</v>
       </c>
       <c r="AG4">
-        <v>8833366</v>
+        <v>8840417</v>
       </c>
       <c r="AH4">
-        <v>0.0720055073003881</v>
+        <v>0.07274566346813731</v>
       </c>
       <c r="AI4">
+        <v>0.5674907642931323</v>
+      </c>
+      <c r="AJ4">
         <v>1988</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>68154</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1294,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>636051</v>
+        <v>643102</v>
       </c>
       <c r="U5">
         <v>21</v>
@@ -1330,30 +1360,36 @@
         <v>4093293</v>
       </c>
       <c r="AG5">
-        <v>8833366</v>
+        <v>8840417</v>
       </c>
       <c r="AH5">
-        <v>0.0720055073003881</v>
+        <v>0.07274566346813731</v>
       </c>
       <c r="AI5">
+        <v>0.5674907642931323</v>
+      </c>
+      <c r="AJ5">
         <v>1988</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>563847</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1410,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>636051</v>
+        <v>643102</v>
       </c>
       <c r="U6">
         <v>21</v>
@@ -1446,30 +1482,36 @@
         <v>2061461</v>
       </c>
       <c r="AG6">
-        <v>8833366</v>
+        <v>8840417</v>
       </c>
       <c r="AH6">
-        <v>0.0720055073003881</v>
+        <v>0.07274566346813731</v>
       </c>
       <c r="AI6">
+        <v>0.5674907642931323</v>
+      </c>
+      <c r="AJ6">
         <v>1988</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>58643</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1526,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>636051</v>
+        <v>643102</v>
       </c>
       <c r="U7">
         <v>21</v>
@@ -1562,30 +1604,36 @@
         <v>1570343</v>
       </c>
       <c r="AG7">
-        <v>8833366</v>
+        <v>8840417</v>
       </c>
       <c r="AH7">
-        <v>0.0720055073003881</v>
+        <v>0.07274566346813731</v>
       </c>
       <c r="AI7">
+        <v>0.5674907642931323</v>
+      </c>
+      <c r="AJ7">
         <v>1988</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>378262</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1642,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>636051</v>
+        <v>643102</v>
       </c>
       <c r="U8">
         <v>21</v>
@@ -1678,30 +1726,36 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>8833366</v>
+        <v>8840417</v>
       </c>
       <c r="AH8">
-        <v>0.0720055073003881</v>
+        <v>0.07274566346813731</v>
       </c>
       <c r="AI8">
+        <v>0.5674907642931323</v>
+      </c>
+      <c r="AJ8">
         <v>1988</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>200613</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1758,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>636051</v>
+        <v>643102</v>
       </c>
       <c r="U9">
         <v>21</v>
@@ -1794,30 +1848,36 @@
         <v>5201043</v>
       </c>
       <c r="AG9">
-        <v>8833366</v>
+        <v>8840417</v>
       </c>
       <c r="AH9">
-        <v>0.0720055073003881</v>
+        <v>0.07274566346813731</v>
       </c>
       <c r="AI9">
+        <v>0.5674907642931323</v>
+      </c>
+      <c r="AJ9">
         <v>1988</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>2680613</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1874,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>636051</v>
+        <v>643102</v>
       </c>
       <c r="U10">
         <v>21</v>
@@ -1910,30 +1970,36 @@
         <v>3433758</v>
       </c>
       <c r="AG10">
-        <v>8833366</v>
+        <v>8840417</v>
       </c>
       <c r="AH10">
-        <v>0.0720055073003881</v>
+        <v>0.07274566346813731</v>
       </c>
       <c r="AI10">
+        <v>0.5674907642931323</v>
+      </c>
+      <c r="AJ10">
         <v>1988</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>179268</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1990,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>636051</v>
+        <v>643102</v>
       </c>
       <c r="U11">
         <v>21</v>
@@ -2026,30 +2092,36 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>8833366</v>
+        <v>8840417</v>
       </c>
       <c r="AH11">
-        <v>0.0720055073003881</v>
+        <v>0.07274566346813731</v>
       </c>
       <c r="AI11">
+        <v>0.5674907642931323</v>
+      </c>
+      <c r="AJ11">
         <v>1988</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>7878</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2106,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>636051</v>
+        <v>643102</v>
       </c>
       <c r="U12">
         <v>21</v>
@@ -2142,30 +2214,36 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>8833366</v>
+        <v>8840417</v>
       </c>
       <c r="AH12">
-        <v>0.0720055073003881</v>
+        <v>0.07274566346813731</v>
       </c>
       <c r="AI12">
+        <v>0.5674907642931323</v>
+      </c>
+      <c r="AJ12">
         <v>1988</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>61900</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2222,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>636051</v>
+        <v>643102</v>
       </c>
       <c r="U13">
         <v>21</v>
@@ -2258,30 +2336,36 @@
         <v>779906</v>
       </c>
       <c r="AG13">
-        <v>8833366</v>
+        <v>8840417</v>
       </c>
       <c r="AH13">
-        <v>0.0720055073003881</v>
+        <v>0.07274566346813731</v>
       </c>
       <c r="AI13">
+        <v>0.5674907642931323</v>
+      </c>
+      <c r="AJ13">
         <v>1988</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>137565</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2338,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>895938</v>
+        <v>905662</v>
       </c>
       <c r="U14">
         <v>21</v>
@@ -2374,30 +2458,36 @@
         <v>17422722</v>
       </c>
       <c r="AG14">
-        <v>18807878</v>
+        <v>18817602</v>
       </c>
       <c r="AH14">
-        <v>0.04763631495270226</v>
+        <v>0.0481284490978181</v>
       </c>
       <c r="AI14">
+        <v>0.8251286215958866</v>
+      </c>
+      <c r="AJ14">
         <v>1988</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>376946</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2454,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>895938</v>
+        <v>905662</v>
       </c>
       <c r="U15">
         <v>21</v>
@@ -2490,30 +2580,36 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>18807878</v>
+        <v>18817602</v>
       </c>
       <c r="AH15">
-        <v>0.04763631495270226</v>
+        <v>0.0481284490978181</v>
       </c>
       <c r="AI15">
+        <v>0.8251286215958866</v>
+      </c>
+      <c r="AJ15">
         <v>1988</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>138896</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2570,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>895938</v>
+        <v>905662</v>
       </c>
       <c r="U16">
         <v>21</v>
@@ -2606,30 +2702,36 @@
         <v>22208778.83333333</v>
       </c>
       <c r="AG16">
-        <v>18807878</v>
+        <v>18817602</v>
       </c>
       <c r="AH16">
-        <v>0.04763631495270226</v>
+        <v>0.0481284490978181</v>
       </c>
       <c r="AI16">
+        <v>0.8251286215958866</v>
+      </c>
+      <c r="AJ16">
         <v>1988</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>996196</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2686,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>895938</v>
+        <v>905662</v>
       </c>
       <c r="U17">
         <v>21</v>
@@ -2722,30 +2824,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG17">
-        <v>18807878</v>
+        <v>18817602</v>
       </c>
       <c r="AH17">
-        <v>0.04763631495270226</v>
+        <v>0.0481284490978181</v>
       </c>
       <c r="AI17">
+        <v>0.8251286215958866</v>
+      </c>
+      <c r="AJ17">
         <v>1988</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>227219</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2802,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>895938</v>
+        <v>905662</v>
       </c>
       <c r="U18">
         <v>21</v>
@@ -2838,30 +2946,36 @@
         <v>12175312</v>
       </c>
       <c r="AG18">
-        <v>18807878</v>
+        <v>18817602</v>
       </c>
       <c r="AH18">
-        <v>0.04763631495270226</v>
+        <v>0.0481284490978181</v>
       </c>
       <c r="AI18">
+        <v>0.8251286215958866</v>
+      </c>
+      <c r="AJ18">
         <v>1988</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>1100638</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2918,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>895938</v>
+        <v>905662</v>
       </c>
       <c r="U19">
         <v>21</v>
@@ -2954,30 +3068,36 @@
         <v>10267085.83333333</v>
       </c>
       <c r="AG19">
-        <v>18807878</v>
+        <v>18817602</v>
       </c>
       <c r="AH19">
-        <v>0.04763631495270226</v>
+        <v>0.0481284490978181</v>
       </c>
       <c r="AI19">
+        <v>0.8251286215958866</v>
+      </c>
+      <c r="AJ19">
         <v>1988</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>1773083</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3034,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>895938</v>
+        <v>905662</v>
       </c>
       <c r="U20">
         <v>21</v>
@@ -3070,30 +3190,36 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>18807878</v>
+        <v>18817602</v>
       </c>
       <c r="AH20">
-        <v>0.04763631495270226</v>
+        <v>0.0481284490978181</v>
       </c>
       <c r="AI20">
+        <v>0.8251286215958866</v>
+      </c>
+      <c r="AJ20">
         <v>1988</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>274796</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3150,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>895938</v>
+        <v>905662</v>
       </c>
       <c r="U21">
         <v>21</v>
@@ -3186,30 +3312,36 @@
         <v>18320809.5</v>
       </c>
       <c r="AG21">
-        <v>18807878</v>
+        <v>18817602</v>
       </c>
       <c r="AH21">
-        <v>0.04763631495270226</v>
+        <v>0.0481284490978181</v>
       </c>
       <c r="AI21">
+        <v>0.8251286215958866</v>
+      </c>
+      <c r="AJ21">
         <v>1988</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>229070</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3266,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>895938</v>
+        <v>905662</v>
       </c>
       <c r="U22">
         <v>21</v>
@@ -3302,30 +3434,36 @@
         <v>13056447</v>
       </c>
       <c r="AG22">
-        <v>18807878</v>
+        <v>18817602</v>
       </c>
       <c r="AH22">
-        <v>0.04763631495270226</v>
+        <v>0.0481284490978181</v>
       </c>
       <c r="AI22">
+        <v>0.8251286215958866</v>
+      </c>
+      <c r="AJ22">
         <v>1988</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>794610</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3382,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>895938</v>
+        <v>905662</v>
       </c>
       <c r="U23">
         <v>21</v>
@@ -3418,30 +3556,36 @@
         <v>32846422</v>
       </c>
       <c r="AG23">
-        <v>18807878</v>
+        <v>18817602</v>
       </c>
       <c r="AH23">
-        <v>0.04763631495270226</v>
+        <v>0.0481284490978181</v>
       </c>
       <c r="AI23">
+        <v>0.8251286215958866</v>
+      </c>
+      <c r="AJ23">
         <v>1988</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>1045533</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3498,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>895938</v>
+        <v>905662</v>
       </c>
       <c r="U24">
         <v>21</v>
@@ -3534,30 +3678,36 @@
         <v>10672204</v>
       </c>
       <c r="AG24">
-        <v>18807878</v>
+        <v>18817602</v>
       </c>
       <c r="AH24">
-        <v>0.04763631495270226</v>
+        <v>0.0481284490978181</v>
       </c>
       <c r="AI24">
+        <v>0.8251286215958866</v>
+      </c>
+      <c r="AJ24">
         <v>1988</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>162613</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3614,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>895938</v>
+        <v>905662</v>
       </c>
       <c r="U25">
         <v>21</v>
@@ -3650,30 +3800,36 @@
         <v>27999397</v>
       </c>
       <c r="AG25">
-        <v>18807878</v>
+        <v>18817602</v>
       </c>
       <c r="AH25">
-        <v>0.04763631495270226</v>
+        <v>0.0481284490978181</v>
       </c>
       <c r="AI25">
+        <v>0.8251286215958866</v>
+      </c>
+      <c r="AJ25">
         <v>1988</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>2736298</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3730,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>895938</v>
+        <v>905662</v>
       </c>
       <c r="U26">
         <v>21</v>
@@ -3766,30 +3922,36 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>18807878</v>
+        <v>18817602</v>
       </c>
       <c r="AH26">
-        <v>0.04763631495270226</v>
+        <v>0.0481284490978181</v>
       </c>
       <c r="AI26">
+        <v>0.8251286215958866</v>
+      </c>
+      <c r="AJ26">
         <v>1988</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>164747</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3846,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1383137</v>
+        <v>1390902</v>
       </c>
       <c r="U27">
         <v>31</v>
@@ -3882,30 +4044,36 @@
         <v>1592777</v>
       </c>
       <c r="AG27">
-        <v>3153480</v>
+        <v>3161245</v>
       </c>
       <c r="AH27">
-        <v>0.4386065552976394</v>
+        <v>0.4399855120371879</v>
       </c>
       <c r="AI27">
+        <v>0.193854952716414</v>
+      </c>
+      <c r="AJ27">
         <v>1988</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>144341</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3962,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1383137</v>
+        <v>1390902</v>
       </c>
       <c r="U28">
         <v>31</v>
@@ -3998,30 +4166,36 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>3153480</v>
+        <v>3161245</v>
       </c>
       <c r="AH28">
-        <v>0.4386065552976394</v>
+        <v>0.4399855120371879</v>
       </c>
       <c r="AI28">
+        <v>0.193854952716414</v>
+      </c>
+      <c r="AJ28">
         <v>1988</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>145013</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4078,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1383137</v>
+        <v>1390902</v>
       </c>
       <c r="U29">
         <v>31</v>
@@ -4114,30 +4288,36 @@
         <v>2407765</v>
       </c>
       <c r="AG29">
-        <v>3153480</v>
+        <v>3161245</v>
       </c>
       <c r="AH29">
-        <v>0.4386065552976394</v>
+        <v>0.4399855120371879</v>
       </c>
       <c r="AI29">
+        <v>0.193854952716414</v>
+      </c>
+      <c r="AJ29">
         <v>1988</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>1073019</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4194,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1383137</v>
+        <v>1390902</v>
       </c>
       <c r="U30">
         <v>31</v>
@@ -4230,30 +4410,36 @@
         <v>2140362</v>
       </c>
       <c r="AG30">
-        <v>3153480</v>
+        <v>3161245</v>
       </c>
       <c r="AH30">
-        <v>0.4386065552976394</v>
+        <v>0.4399855120371879</v>
       </c>
       <c r="AI30">
+        <v>0.193854952716414</v>
+      </c>
+      <c r="AJ30">
         <v>1988</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>44397</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4310,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1383137</v>
+        <v>1390902</v>
       </c>
       <c r="U31">
         <v>31</v>
@@ -4346,30 +4532,36 @@
         <v>3746015</v>
       </c>
       <c r="AG31">
-        <v>3153480</v>
+        <v>3161245</v>
       </c>
       <c r="AH31">
-        <v>0.4386065552976394</v>
+        <v>0.4399855120371879</v>
       </c>
       <c r="AI31">
+        <v>0.193854952716414</v>
+      </c>
+      <c r="AJ31">
         <v>1988</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>1575691</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4426,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1383137</v>
+        <v>1390902</v>
       </c>
       <c r="U32">
         <v>31</v>
@@ -4462,30 +4654,36 @@
         <v>2070562</v>
       </c>
       <c r="AG32">
-        <v>3153480</v>
+        <v>3161245</v>
       </c>
       <c r="AH32">
-        <v>0.4386065552976394</v>
+        <v>0.4399855120371879</v>
       </c>
       <c r="AI32">
+        <v>0.193854952716414</v>
+      </c>
+      <c r="AJ32">
         <v>1988</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>758491</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4542,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1383137</v>
+        <v>1390902</v>
       </c>
       <c r="U33">
         <v>31</v>
@@ -4578,30 +4776,36 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>3153480</v>
+        <v>3161245</v>
       </c>
       <c r="AH33">
-        <v>0.4386065552976394</v>
+        <v>0.4399855120371879</v>
       </c>
       <c r="AI33">
+        <v>0.193854952716414</v>
+      </c>
+      <c r="AJ33">
         <v>1988</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>227916</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4658,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>1383137</v>
+        <v>1390902</v>
       </c>
       <c r="U34">
         <v>31</v>
@@ -4694,30 +4898,36 @@
         <v>1979992</v>
       </c>
       <c r="AG34">
-        <v>3153480</v>
+        <v>3161245</v>
       </c>
       <c r="AH34">
-        <v>0.4386065552976394</v>
+        <v>0.4399855120371879</v>
       </c>
       <c r="AI34">
+        <v>0.193854952716414</v>
+      </c>
+      <c r="AJ34">
         <v>1988</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>991844</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4774,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1383137</v>
+        <v>1390902</v>
       </c>
       <c r="U35">
         <v>31</v>
@@ -4810,30 +5020,36 @@
         <v>2299220</v>
       </c>
       <c r="AG35">
-        <v>3153480</v>
+        <v>3161245</v>
       </c>
       <c r="AH35">
-        <v>0.4386065552976394</v>
+        <v>0.4399855120371879</v>
       </c>
       <c r="AI35">
+        <v>0.193854952716414</v>
+      </c>
+      <c r="AJ35">
         <v>1988</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>873573</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4890,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>1383137</v>
+        <v>1390902</v>
       </c>
       <c r="U36">
         <v>31</v>
@@ -4926,30 +5142,36 @@
         <v>1859221</v>
       </c>
       <c r="AG36">
-        <v>3153480</v>
+        <v>3161245</v>
       </c>
       <c r="AH36">
-        <v>0.4386065552976394</v>
+        <v>0.4399855120371879</v>
       </c>
       <c r="AI36">
+        <v>0.193854952716414</v>
+      </c>
+      <c r="AJ36">
         <v>1988</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>226558</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5006,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1383137</v>
+        <v>1390902</v>
       </c>
       <c r="U37">
         <v>31</v>
@@ -5042,30 +5264,36 @@
         <v>2304887</v>
       </c>
       <c r="AG37">
-        <v>3153480</v>
+        <v>3161245</v>
       </c>
       <c r="AH37">
-        <v>0.4386065552976394</v>
+        <v>0.4399855120371879</v>
       </c>
       <c r="AI37">
+        <v>0.193854952716414</v>
+      </c>
+      <c r="AJ37">
         <v>1988</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>2503169</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5122,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>1383137</v>
+        <v>1390902</v>
       </c>
       <c r="U38">
         <v>31</v>
@@ -5158,30 +5386,36 @@
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>3153480</v>
+        <v>3161245</v>
       </c>
       <c r="AH38">
-        <v>0.4386065552976394</v>
+        <v>0.4399855120371879</v>
       </c>
       <c r="AI38">
+        <v>0.193854952716414</v>
+      </c>
+      <c r="AJ38">
         <v>1988</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>17227</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5280,24 +5514,30 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI39">
+        <v>0.2226579369490815</v>
+      </c>
+      <c r="AJ39">
         <v>1988</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>23582</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5396,24 +5636,30 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI40">
+        <v>0.2226579369490815</v>
+      </c>
+      <c r="AJ40">
         <v>1988</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>6541</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5512,24 +5758,30 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI41">
+        <v>0.2226579369490815</v>
+      </c>
+      <c r="AJ41">
         <v>1988</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>271590</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5628,24 +5880,30 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI42">
+        <v>0.2226579369490815</v>
+      </c>
+      <c r="AJ42">
         <v>1988</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>785204.5</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5744,24 +6002,30 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI43">
+        <v>0.2226579369490815</v>
+      </c>
+      <c r="AJ43">
         <v>1988</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>49711.5</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5860,24 +6124,30 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI44">
+        <v>0.2226579369490815</v>
+      </c>
+      <c r="AJ44">
         <v>1988</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>472014.5</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5976,24 +6246,30 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI45">
+        <v>0.2226579369490815</v>
+      </c>
+      <c r="AJ45">
         <v>1988</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>371736.5</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6092,24 +6368,30 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI46">
+        <v>0.2226579369490815</v>
+      </c>
+      <c r="AJ46">
         <v>1988</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>120447.5</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6208,24 +6490,30 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI47">
+        <v>0.2226579369490815</v>
+      </c>
+      <c r="AJ47">
         <v>1988</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47">
         <v>1</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>8023.5</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6324,24 +6612,30 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI48">
+        <v>0.2226579369490815</v>
+      </c>
+      <c r="AJ48">
         <v>1988</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>1102894.5</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6440,24 +6734,30 @@
         <v>0.3053097411933194</v>
       </c>
       <c r="AI49">
+        <v>0.2226579369490815</v>
+      </c>
+      <c r="AJ49">
         <v>1988</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>15470</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6556,24 +6856,30 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI50">
+        <v>0.3398649814506147</v>
+      </c>
+      <c r="AJ50">
         <v>1988</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>23582</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6672,24 +6978,30 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI51">
+        <v>0.3398649814506147</v>
+      </c>
+      <c r="AJ51">
         <v>1988</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>6541</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6788,24 +7100,30 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI52">
+        <v>0.3398649814506147</v>
+      </c>
+      <c r="AJ52">
         <v>1988</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>271590</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6904,24 +7222,30 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI53">
+        <v>0.3398649814506147</v>
+      </c>
+      <c r="AJ53">
         <v>1988</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>785204.5</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7020,24 +7344,30 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI54">
+        <v>0.3398649814506147</v>
+      </c>
+      <c r="AJ54">
         <v>1988</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>49711.5</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7136,24 +7466,30 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI55">
+        <v>0.3398649814506147</v>
+      </c>
+      <c r="AJ55">
         <v>1988</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>472014.5</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7252,24 +7588,30 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI56">
+        <v>0.3398649814506147</v>
+      </c>
+      <c r="AJ56">
         <v>1988</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>371736.5</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7368,24 +7710,30 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI57">
+        <v>0.3398649814506147</v>
+      </c>
+      <c r="AJ57">
         <v>1988</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>120447.5</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7484,24 +7832,30 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI58">
+        <v>0.3398649814506147</v>
+      </c>
+      <c r="AJ58">
         <v>1988</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58">
         <v>1</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>8023.5</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7600,24 +7954,30 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI59">
+        <v>0.3398649814506147</v>
+      </c>
+      <c r="AJ59">
         <v>1988</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59">
         <v>1</v>
       </c>
       <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>1102894.5</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7716,24 +8076,30 @@
         <v>0.2278651180166725</v>
       </c>
       <c r="AI60">
+        <v>0.3398649814506147</v>
+      </c>
+      <c r="AJ60">
         <v>1988</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>15470</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7832,24 +8198,30 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI61">
+        <v>0.7657243805604138</v>
+      </c>
+      <c r="AJ61">
         <v>1988</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>15253.275</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7948,24 +8320,30 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI62">
+        <v>0.7657243805604138</v>
+      </c>
+      <c r="AJ62">
         <v>1988</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>1</v>
       </c>
       <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>27970.275</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8064,24 +8442,30 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI63">
+        <v>0.7657243805604138</v>
+      </c>
+      <c r="AJ63">
         <v>1988</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>413366.26</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8180,24 +8564,30 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI64">
+        <v>0.7657243805604138</v>
+      </c>
+      <c r="AJ64">
         <v>1988</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>765961.645</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8296,24 +8686,30 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI65">
+        <v>0.7657243805604138</v>
+      </c>
+      <c r="AJ65">
         <v>1988</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65">
         <v>1</v>
       </c>
       <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>716272.5</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8412,24 +8808,30 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI66">
+        <v>0.7657243805604138</v>
+      </c>
+      <c r="AJ66">
         <v>1988</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>130849.485</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8528,24 +8930,30 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI67">
+        <v>0.7657243805604138</v>
+      </c>
+      <c r="AJ67">
         <v>1988</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
         <v>0</v>
       </c>
       <c r="AL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>48790.855</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8644,24 +9052,30 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI68">
+        <v>0.7657243805604138</v>
+      </c>
+      <c r="AJ68">
         <v>1988</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68">
         <v>1</v>
       </c>
       <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>9765.18</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8760,24 +9174,30 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI69">
+        <v>0.7657243805604138</v>
+      </c>
+      <c r="AJ69">
         <v>1988</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69">
         <v>1</v>
       </c>
       <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>1052164.325</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8876,24 +9296,30 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI70">
+        <v>0.7657243805604138</v>
+      </c>
+      <c r="AJ70">
         <v>1988</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>396014.34</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8992,24 +9418,30 @@
         <v>0.1338944392274352</v>
       </c>
       <c r="AI71">
+        <v>0.7657243805604138</v>
+      </c>
+      <c r="AJ71">
         <v>1988</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>4161.2</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9108,24 +9540,30 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
         <v>1988</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
         <v>0</v>
       </c>
       <c r="AL72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>15253.275</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9224,24 +9662,30 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
         <v>1988</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>27970.275</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9340,24 +9784,30 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
         <v>1988</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74">
         <v>1</v>
       </c>
       <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>413366.26</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9456,24 +9906,30 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
         <v>1988</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
         <v>0</v>
       </c>
       <c r="AL75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>765961.645</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9572,24 +10028,30 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
         <v>1988</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76">
         <v>1</v>
       </c>
       <c r="AM76">
+        <v>1</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>716272.5</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9688,24 +10150,30 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
         <v>1988</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77">
         <v>1</v>
       </c>
       <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>130849.485</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9804,24 +10272,30 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
         <v>1988</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
         <v>0</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>48790.855</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9920,24 +10394,30 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
         <v>1988</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79">
         <v>1</v>
       </c>
       <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>9765.18</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10036,24 +10516,30 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
         <v>1988</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
         <v>1</v>
       </c>
       <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>1052164.325</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10152,24 +10638,30 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
         <v>1988</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>396014.34</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10268,24 +10760,30 @@
         <v>0.5025795983690396</v>
       </c>
       <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
         <v>1988</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
         <v>0</v>
       </c>
       <c r="AL82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>4161.2</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10384,24 +10882,30 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI83">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ83">
         <v>1988</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>9194</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10500,24 +11004,30 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI84">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ84">
         <v>1988</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
         <v>0</v>
       </c>
       <c r="AL84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>5082</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10616,24 +11126,30 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI85">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ85">
         <v>1988</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL85">
         <v>1</v>
       </c>
       <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>70071</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10732,24 +11248,30 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI86">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ86">
         <v>1988</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86">
         <v>1</v>
       </c>
       <c r="AM86">
+        <v>1</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>1234257</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -10848,24 +11370,30 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI87">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ87">
         <v>1988</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
+        <v>1</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>1068102</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10964,24 +11492,30 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI88">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ88">
         <v>1988</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL88">
         <v>1</v>
       </c>
       <c r="AM88">
+        <v>1</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>866628</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -11080,24 +11614,30 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI89">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ89">
         <v>1988</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
         <v>0</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>8496</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -11196,24 +11736,30 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI90">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ90">
         <v>1988</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90">
         <v>1</v>
       </c>
       <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>167554</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -11312,24 +11858,30 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI91">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ91">
         <v>1988</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
         <v>0</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
+        <v>1</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>249203</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11428,24 +11980,30 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI92">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ92">
         <v>1988</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL92">
         <v>1</v>
       </c>
       <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>25199</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11544,24 +12102,30 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI93">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ93">
         <v>1988</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93">
         <v>1</v>
       </c>
       <c r="AM93">
+        <v>1</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>1198295</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11660,30 +12224,36 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI94">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ94">
         <v>1988</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
       <c r="AK94">
         <v>0</v>
       </c>
       <c r="AL94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94">
+        <v>1</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>543185</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -11776,24 +12346,30 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI95">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ95">
         <v>1988</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
       <c r="AK95">
         <v>0</v>
       </c>
       <c r="AL95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>30000</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11892,18 +12468,24 @@
         <v>0.2810572162426092</v>
       </c>
       <c r="AI96">
+        <v>0.08413678818921362</v>
+      </c>
+      <c r="AJ96">
         <v>1988</v>
       </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
       <c r="AK96">
         <v>0</v>
       </c>
       <c r="AL96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>19336</v>
       </c>
     </row>

--- a/output/cesal.xlsx
+++ b/output/cesal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -419,9 +419,6 @@
   </si>
   <si>
     <t>2016_siria</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2016_uganda</t>
@@ -907,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1029,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D3">
         <v>206568</v>
@@ -1151,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1273,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1395,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>680</v>
+        <v>697.6889104500298</v>
       </c>
       <c r="D6">
         <v>349752</v>
@@ -1497,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
         <v>1</v>
@@ -1517,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1619,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -1639,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8820</v>
+        <v>8947.741473873051</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1761,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D9">
         <v>261311</v>
@@ -1883,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2005,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7800</v>
+        <v>9502.243585046588</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2127,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6474.166666666667</v>
+        <v>5741.405300355145</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2249,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4280</v>
+        <v>3928.450391496945</v>
       </c>
       <c r="D13">
         <v>200000</v>
@@ -2371,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2493,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>560</v>
+        <v>815.8736791314819</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2615,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D16">
         <v>5000000</v>
@@ -2737,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2859,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D18">
         <v>3526942</v>
@@ -2961,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -2981,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D19">
         <v>206568</v>
@@ -3103,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9040</v>
+        <v>9271.398233246389</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3225,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3347,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D22">
         <v>3000000</v>
@@ -3449,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -3469,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3591,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D24">
         <v>280720</v>
@@ -3713,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D25">
         <v>4000000</v>
@@ -3835,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>4360</v>
+        <v>4094.350334420203</v>
       </c>
       <c r="D26">
         <v>200000</v>
@@ -3957,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4079,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>630</v>
+        <v>864.5379000312432</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4201,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D29">
         <v>5000000</v>
@@ -4323,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4445,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D31">
         <v>612823</v>
@@ -4547,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -4567,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4689,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>9310</v>
+        <v>9477.887185090232</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4811,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D34">
         <v>3000000</v>
@@ -4913,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -4933,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5055,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5177,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D37">
         <v>4000000</v>
@@ -5299,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>11980</v>
+        <v>14179.19231490798</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5421,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5543,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>640</v>
+        <v>869.6014949562591</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5665,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5787,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D42">
         <v>405605</v>
@@ -5889,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42">
         <v>1</v>
@@ -5909,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>10050</v>
+        <v>9690.869064532331</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6031,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D44">
         <v>230059</v>
@@ -6153,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6255,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM45">
         <v>1</v>
@@ -6275,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6397,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6519,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6641,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>12360</v>
+        <v>11745.7759262897</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6763,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6885,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>650</v>
+        <v>872.1235974568563</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7007,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7129,7 +7126,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D53">
         <v>409470</v>
@@ -7231,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM53">
         <v>1</v>
@@ -7251,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>10270</v>
+        <v>9693.722968944676</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7373,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D55">
         <v>307460</v>
@@ -7495,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7597,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM56">
         <v>1</v>
@@ -7617,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7739,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7861,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7983,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>12810</v>
+        <v>11993.48398487312</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8105,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>12100</v>
+        <v>11951.20944634967</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8227,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8349,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D63">
         <v>2500000</v>
@@ -8471,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D64">
         <v>2500000</v>
@@ -8573,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM64">
         <v>1</v>
@@ -8593,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D65">
         <v>2500000</v>
@@ -8715,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>10510</v>
+        <v>9839.050190896</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8837,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -8959,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9081,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D69">
         <v>2500000</v>
@@ -9203,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9305,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM70">
         <v>1</v>
@@ -9325,7 +9322,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>690</v>
+        <v>886.4370030633224</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9447,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>10160</v>
+        <v>11431.15448084494</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9569,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9691,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9813,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -9915,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="AL75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM75">
         <v>1</v>
@@ -9935,7 +9932,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10057,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>10170</v>
+        <v>10037.20149040966</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10179,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10301,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10423,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10545,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10647,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM81">
         <v>1</v>
@@ -10667,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>700</v>
+        <v>900.3889853519216</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10789,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>820</v>
+        <v>1134.924536209078</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -10911,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>8930</v>
+        <v>10965.97426143915</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11033,7 +11030,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11155,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11277,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D87">
         <v>314994</v>
@@ -11379,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM87">
         <v>1</v>
@@ -11399,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11521,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>7250</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11643,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>9410</v>
+        <v>10205.79575322194</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11765,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>490</v>
+        <v>584.2111078769213</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -11887,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>5390</v>
+        <v>5089.61202008711</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12009,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12131,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>6640</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12233,7 +12230,7 @@
         <v>0</v>
       </c>
       <c r="AL94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM94">
         <v>1</v>
@@ -12252,8 +12249,8 @@
       <c r="B95">
         <v>0</v>
       </c>
-      <c r="C95" t="s">
-        <v>135</v>
+      <c r="C95">
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12369,13 +12366,13 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>660</v>
+        <v>909.5979669529498</v>
       </c>
       <c r="D96">
         <v>0</v>

--- a/output/cesal.xlsx
+++ b/output/cesal.xlsx
@@ -2981,7 +2981,7 @@
         <v>1904.346464968814</v>
       </c>
       <c r="D19">
-        <v>206568</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>447681</v>
@@ -3591,7 +3591,7 @@
         <v>4355.934938677345</v>
       </c>
       <c r="D24">
-        <v>280720</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>4094.350334420203</v>
       </c>
       <c r="D26">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>137565</v>
@@ -4201,7 +4201,7 @@
         <v>3083.80337578809</v>
       </c>
       <c r="D29">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>996196</v>
@@ -4811,7 +4811,7 @@
         <v>5660.517066940175</v>
       </c>
       <c r="D34">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>794610</v>
@@ -5177,7 +5177,7 @@
         <v>5360.226632400601</v>
       </c>
       <c r="D37">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>2736298</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>23582</v>
+        <v>144341</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>6541</v>
+        <v>145013</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>271590</v>
+        <v>1073019</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -7132,7 +7132,7 @@
         <v>409470</v>
       </c>
       <c r="E53">
-        <v>785204.5</v>
+        <v>1575691</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>49711.5</v>
+        <v>227916</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -7376,7 +7376,7 @@
         <v>307460</v>
       </c>
       <c r="E55">
-        <v>472014.5</v>
+        <v>758491</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>371736.5</v>
+        <v>991844</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7620,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>120447.5</v>
+        <v>873573</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>8023.5</v>
+        <v>226558</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1102894.5</v>
+        <v>2503169</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>15470</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>15253.275</v>
+        <v>15470</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>27970.275</v>
+        <v>120447.5</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>413366.26</v>
+        <v>271590</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>114</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>729.1196658666737</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>765961.645</v>
+        <v>785204.5</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>716272.5</v>
+        <v>472014.5</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>130849.485</v>
+        <v>49711.5</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -10173,7 +10173,7 @@
         <v>117</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>579.0880693780265</v>
@@ -10182,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>48790.855</v>
+        <v>23582</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -10304,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>9765.18</v>
+        <v>8023.5</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -10426,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>1052164.325</v>
+        <v>1102894.5</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>396014.34</v>
+        <v>371736.5</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>121</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>900.3889853519216</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>4161.2</v>
+        <v>6541</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>941.02</v>
       </c>
       <c r="D95">
         <v>0</v>
